--- a/locations.xlsx
+++ b/locations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DJ\Documents\hhnDatabase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djtro\Documents\hhn_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21822B52-BDE4-4EBF-87CB-B14548419DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F6BC62-8DAA-426D-8E44-DD4AAA9D88AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{47E16E49-FB1F-4701-91EC-667954A21C9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{47E16E49-FB1F-4701-91EC-667954A21C9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Orlando" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="All" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1577,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11B7841-64E7-4F76-8C55-CB1D5D287C27}">
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djtro\Documents\hhn_database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/djtrost/Documents/hhn_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F6BC62-8DAA-426D-8E44-DD4AAA9D88AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7D32D4-8215-5D49-9526-EF09C045FF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{47E16E49-FB1F-4701-91EC-667954A21C9E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{47E16E49-FB1F-4701-91EC-667954A21C9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Orlando" sheetId="2" r:id="rId1"/>
@@ -837,15 +837,15 @@
       <selection activeCell="A2" sqref="A2:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -861,7 +861,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -872,7 +872,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -883,7 +883,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -894,7 +894,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -905,7 +905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -916,7 +916,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -927,7 +927,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -938,7 +938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -949,7 +949,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -960,7 +960,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -971,7 +971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -982,7 +982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -993,7 +993,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>110</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>107</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>109</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -1097,27 +1097,27 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -1138,15 +1138,15 @@
       <selection activeCell="E2" sqref="E2:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1325,52 +1325,52 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1389,15 +1389,15 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -1488,15 +1488,15 @@
       <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1542,27 +1542,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -1576,19 +1576,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11B7841-64E7-4F76-8C55-CB1D5D287C27}">
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>111</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>104</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>101</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>110</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>108</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>107</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>109</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>85</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>84</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>24</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>36</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2359,222 +2359,222 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>40</v>
       </c>
